--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17AF8A-1A94-4A69-B917-280712FFD5FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9216665A-84D7-4701-8209-1B0915056795}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>čas [min]</t>
   </si>
@@ -55,6 +53,9 @@
   </si>
   <si>
     <t>24.3.</t>
+  </si>
+  <si>
+    <t>25.3.</t>
   </si>
 </sst>
 </file>
@@ -222,10 +223,10 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,7 +570,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,10 +592,10 @@
       <c r="B1" s="17"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -615,8 +616,8 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
@@ -662,27 +663,34 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="10"/>
+      <c r="B4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.68263888888888891</v>
+      </c>
       <c r="E4" s="12">
         <f t="shared" ref="E4:E5" si="3">D4-C4</f>
-        <v>0</v>
+        <v>5.7638888888888906E-2</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H4" s="8">
         <f>(H3+G4-G3)</f>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" si="2"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -694,19 +702,19 @@
       </c>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H5" s="8">
         <f>(H4+G5-G4)</f>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="2"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -718,19 +726,19 @@
       </c>
       <c r="F6" s="13">
         <f t="shared" ref="F6:F38" si="5">F5+E6</f>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G38" si="6">F6</f>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H38" si="7">(H5+G6-G5)</f>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" ref="I6:I38" si="8">H6*24*$J$2</f>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -742,19 +750,19 @@
       </c>
       <c r="F7" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -766,19 +774,19 @@
       </c>
       <c r="F8" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -790,19 +798,19 @@
       </c>
       <c r="F9" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -814,19 +822,19 @@
       </c>
       <c r="F10" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -838,19 +846,19 @@
       </c>
       <c r="F11" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -862,19 +870,19 @@
       </c>
       <c r="F12" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -886,19 +894,19 @@
       </c>
       <c r="F13" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -910,19 +918,19 @@
       </c>
       <c r="F14" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -934,19 +942,19 @@
       </c>
       <c r="F15" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -958,19 +966,19 @@
       </c>
       <c r="F16" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -982,19 +990,19 @@
       </c>
       <c r="F17" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -1006,19 +1014,19 @@
       </c>
       <c r="F18" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -1030,19 +1038,19 @@
       </c>
       <c r="F19" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -1054,19 +1062,19 @@
       </c>
       <c r="F20" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -1078,19 +1086,19 @@
       </c>
       <c r="F21" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -1102,19 +1110,19 @@
       </c>
       <c r="F22" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -1126,19 +1134,19 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -1150,19 +1158,19 @@
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -1174,19 +1182,19 @@
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -1198,19 +1206,19 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -1222,19 +1230,19 @@
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -1246,19 +1254,19 @@
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -1270,19 +1278,19 @@
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -1294,19 +1302,19 @@
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -1318,19 +1326,19 @@
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -1342,19 +1350,19 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1366,19 +1374,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1390,19 +1398,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1414,19 +1422,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1438,19 +1446,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1462,19 +1470,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1486,19 +1494,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>4.166666666666663E-2</v>
+        <v>9.9305555555555536E-2</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>169.99999999999986</v>
+        <v>405.16666666666657</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9216665A-84D7-4701-8209-1B0915056795}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EE15C-C768-4B17-8DB6-632D902AEA2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="2025" windowWidth="22080" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>čas [min]</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>25.3.</t>
+  </si>
+  <si>
+    <t>2.5.</t>
+  </si>
+  <si>
+    <t>8.5.</t>
+  </si>
+  <si>
+    <t>9.5.</t>
   </si>
 </sst>
 </file>
@@ -570,7 +579,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,171 +703,208 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="E5" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.1249999999999889E-2</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.13055555555555542</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.13055555555555542</v>
       </c>
       <c r="H5" s="8">
         <f>(H4+G5-G4)</f>
-        <v>9.9305555555555536E-2</v>
+        <v>0.13055555555555542</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="2"/>
-        <v>405.16666666666657</v>
+        <v>532.66666666666617</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.6875</v>
+      </c>
       <c r="E6" s="12">
         <f t="shared" ref="E6:E38" si="4">D6-C6</f>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" ref="F6:F38" si="5">F5+E6</f>
-        <v>9.9305555555555536E-2</v>
+        <v>0.14444444444444426</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G38" si="6">F6</f>
-        <v>9.9305555555555536E-2</v>
+        <v>0.14444444444444426</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:H38" si="7">(H5+G6-G5)</f>
-        <v>9.9305555555555536E-2</v>
+        <v>0.14444444444444426</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" ref="I6:I38" si="8">H6*24*$J$2</f>
-        <v>405.16666666666657</v>
+        <v>589.33333333333258</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="E7" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.17916666666666647</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.17916666666666647</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.17916666666666647</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>730.9999999999992</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="2">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E8" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.21388888888888868</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.21388888888888868</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.21388888888888868</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>872.66666666666583</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="E9" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.1805555555555625E-2</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.22569444444444431</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.22569444444444431</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.22569444444444431</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>920.8333333333328</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="2">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.84097222222222223</v>
+      </c>
       <c r="E10" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.8055555555555602E-2</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.24374999999999991</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.24374999999999991</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.24374999999999991</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>994.49999999999966</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="2">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.87569444444444444</v>
+      </c>
       <c r="E11" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.8472222222222232E-2</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -870,19 +916,19 @@
       </c>
       <c r="F12" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -894,19 +940,19 @@
       </c>
       <c r="F13" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -918,19 +964,19 @@
       </c>
       <c r="F14" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -942,19 +988,19 @@
       </c>
       <c r="F15" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -966,19 +1012,19 @@
       </c>
       <c r="F16" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -990,19 +1036,19 @@
       </c>
       <c r="F17" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -1014,19 +1060,19 @@
       </c>
       <c r="F18" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -1038,19 +1084,19 @@
       </c>
       <c r="F19" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -1062,19 +1108,19 @@
       </c>
       <c r="F20" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -1086,19 +1132,19 @@
       </c>
       <c r="F21" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -1110,19 +1156,19 @@
       </c>
       <c r="F22" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -1134,19 +1180,19 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -1158,19 +1204,19 @@
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -1182,19 +1228,19 @@
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -1206,19 +1252,19 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -1230,19 +1276,19 @@
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -1254,19 +1300,19 @@
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -1278,19 +1324,19 @@
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -1302,19 +1348,19 @@
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -1326,19 +1372,19 @@
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -1350,19 +1396,19 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1374,19 +1420,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1398,19 +1444,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1422,19 +1468,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1446,19 +1492,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1470,19 +1516,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1494,19 +1540,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>9.9305555555555536E-2</v>
+        <v>0.27222222222222214</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>405.16666666666657</v>
+        <v>1110.6666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EE15C-C768-4B17-8DB6-632D902AEA2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D12C7E-41E9-4BBD-A815-27B6940A05B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="2025" windowWidth="22080" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="570" windowWidth="22080" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>čas [min]</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>9.5.</t>
+  </si>
+  <si>
+    <t>10.5.</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,27 +911,34 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="E12" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6388888888888962E-2</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111116</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333335</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -940,19 +950,19 @@
       </c>
       <c r="F13" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -964,19 +974,19 @@
       </c>
       <c r="F14" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -988,19 +998,19 @@
       </c>
       <c r="F15" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1012,19 +1022,19 @@
       </c>
       <c r="F16" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -1036,19 +1046,19 @@
       </c>
       <c r="F17" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -1060,19 +1070,19 @@
       </c>
       <c r="F18" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -1084,19 +1094,19 @@
       </c>
       <c r="F19" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -1108,19 +1118,19 @@
       </c>
       <c r="F20" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -1132,19 +1142,19 @@
       </c>
       <c r="F21" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -1156,19 +1166,19 @@
       </c>
       <c r="F22" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -1180,19 +1190,19 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -1204,19 +1214,19 @@
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -1228,19 +1238,19 @@
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -1252,19 +1262,19 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -1276,19 +1286,19 @@
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -1300,19 +1310,19 @@
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -1324,19 +1334,19 @@
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -1348,19 +1358,19 @@
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -1372,19 +1382,19 @@
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -1396,19 +1406,19 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1420,19 +1430,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1444,19 +1454,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1468,19 +1478,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1492,19 +1502,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1516,19 +1526,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1540,19 +1550,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>0.27222222222222214</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>0.27222222222222214</v>
+        <v>0.29861111111111122</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>1110.6666666666663</v>
+        <v>1218.3333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D12C7E-41E9-4BBD-A815-27B6940A05B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130A6EF-FB62-48E5-B529-38B6804438B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5025" yWindow="570" windowWidth="22080" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,27 +942,31 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="2">
+        <v>0.75902777777777775</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.77986111111111101</v>
+      </c>
       <c r="E13" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -974,19 +978,19 @@
       </c>
       <c r="F14" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -998,19 +1002,19 @@
       </c>
       <c r="F15" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1022,19 +1026,19 @@
       </c>
       <c r="F16" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -1046,19 +1050,19 @@
       </c>
       <c r="F17" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -1070,19 +1074,19 @@
       </c>
       <c r="F18" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -1094,19 +1098,19 @@
       </c>
       <c r="F19" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -1118,19 +1122,19 @@
       </c>
       <c r="F20" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -1142,19 +1146,19 @@
       </c>
       <c r="F21" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -1166,19 +1170,19 @@
       </c>
       <c r="F22" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -1190,19 +1194,19 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -1214,19 +1218,19 @@
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -1238,19 +1242,19 @@
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -1262,19 +1266,19 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -1286,19 +1290,19 @@
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -1310,19 +1314,19 @@
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -1334,19 +1338,19 @@
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -1358,19 +1362,19 @@
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -1382,19 +1386,19 @@
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -1406,19 +1410,19 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1430,19 +1434,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1454,19 +1458,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1478,19 +1482,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1502,19 +1506,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1526,19 +1530,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1550,19 +1554,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>0.2986111111111111</v>
+        <v>0.31944444444444436</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>0.29861111111111122</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>1218.3333333333339</v>
+        <v>1303.3333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4130A6EF-FB62-48E5-B529-38B6804438B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D6F66B-B4CE-475C-B3CE-0E11A31E1701}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="570" windowWidth="22080" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>čas [min]</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>10.5.</t>
+  </si>
+  <si>
+    <t>24.5.</t>
   </si>
 </sst>
 </file>
@@ -582,7 +585,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,27 +973,34 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.63611111111111118</v>
+      </c>
       <c r="E14" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.11875000000000013</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -1002,19 +1012,19 @@
       </c>
       <c r="F15" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1026,19 +1036,19 @@
       </c>
       <c r="F16" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
@@ -1050,19 +1060,19 @@
       </c>
       <c r="F17" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
@@ -1074,19 +1084,19 @@
       </c>
       <c r="F18" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -1098,19 +1108,19 @@
       </c>
       <c r="F19" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -1122,19 +1132,19 @@
       </c>
       <c r="F20" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -1146,19 +1156,19 @@
       </c>
       <c r="F21" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -1170,19 +1180,19 @@
       </c>
       <c r="F22" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -1194,19 +1204,19 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -1218,19 +1228,19 @@
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -1242,19 +1252,19 @@
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -1266,19 +1276,19 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -1290,19 +1300,19 @@
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -1314,19 +1324,19 @@
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -1338,19 +1348,19 @@
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -1362,19 +1372,19 @@
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -1386,19 +1396,19 @@
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -1410,19 +1420,19 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1434,19 +1444,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1458,19 +1468,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1482,19 +1492,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1506,19 +1516,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1530,19 +1540,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1554,19 +1564,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>0.31944444444444436</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>0.31944444444444448</v>
+        <v>0.43819444444444461</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>1303.3333333333335</v>
+        <v>1787.8333333333342</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D6F66B-B4CE-475C-B3CE-0E11A31E1701}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E355C2-BB7C-49FC-83E4-B8BD7871C69D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,7 +585,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,123 +1004,143 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="2">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.67847222222222225</v>
+      </c>
       <c r="E15" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.3333333333334147E-3</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.44652777777777791</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.44652777777777791</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.44652777777777802</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>1821.8333333333342</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
+      <c r="C16" s="2">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.69027777777777777</v>
+      </c>
       <c r="E16" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4722222222222099E-3</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.45000000000000012</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.45000000000000012</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.45000000000000023</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>1836.0000000000011</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.72083333333333333</v>
+      </c>
       <c r="E17" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2916666666666696E-2</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.47291666666666682</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.47291666666666682</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.47291666666666693</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>1929.5000000000011</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="2">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="E18" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.10277777777777763</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.57569444444444451</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.57569444444444451</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.57569444444444451</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2348.8333333333335</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="2">
+        <v>0.96319444444444446</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.98541666666666661</v>
+      </c>
       <c r="E19" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2222222222222143E-2</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -1132,19 +1152,19 @@
       </c>
       <c r="F20" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -1156,19 +1176,19 @@
       </c>
       <c r="F21" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -1180,19 +1200,19 @@
       </c>
       <c r="F22" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -1204,19 +1224,19 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -1228,19 +1248,19 @@
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -1252,19 +1272,19 @@
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -1276,19 +1296,19 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -1300,19 +1320,19 @@
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
@@ -1324,19 +1344,19 @@
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
@@ -1348,19 +1368,19 @@
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
@@ -1372,19 +1392,19 @@
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
@@ -1396,19 +1416,19 @@
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
@@ -1420,19 +1440,19 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1444,19 +1464,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1468,19 +1488,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1492,19 +1512,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1516,19 +1536,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1540,19 +1560,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1564,19 +1584,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>0.4381944444444445</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>0.43819444444444461</v>
+        <v>0.59791666666666665</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>1787.8333333333342</v>
+        <v>2439.5</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E355C2-BB7C-49FC-83E4-B8BD7871C69D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CB2857-83AD-416A-ABC2-FB9F3453FCB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>čas [min]</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>24.5.</t>
+  </si>
+  <si>
+    <t>25.5.</t>
+  </si>
+  <si>
+    <t>26.5.</t>
   </si>
 </sst>
 </file>
@@ -585,7 +591,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1065,7 @@
         <v>1836.0000000000011</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>0.69791666666666663</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>1929.5000000000011</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>0.75138888888888899</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>2348.8333333333335</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <v>0.96319444444444446</v>
       </c>
@@ -1143,127 +1149,153 @@
         <v>2439.5</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.71527777777777779</v>
+      </c>
       <c r="E20" s="12">
         <f t="shared" si="4"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="5"/>
+        <v>0.61874999999999991</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="6"/>
+        <v>0.61874999999999991</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="7"/>
+        <v>0.61874999999999991</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="8"/>
+        <v>2524.4999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="4"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="5"/>
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="6"/>
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="7"/>
+        <v>0.62569444444444455</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="8"/>
+        <v>2552.8333333333339</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>0.78055555555555556</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.67569444444444449</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="6"/>
+        <v>0.67569444444444449</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="7"/>
+        <v>0.67569444444444449</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="8"/>
+        <v>2756.8333333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="4"/>
+        <v>7.638888888888884E-2</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="5"/>
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="6"/>
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="7"/>
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="8"/>
+        <v>3068.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="13">
-        <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="I20" s="15">
-        <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="I22" s="15">
-        <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
-      </c>
-      <c r="I23" s="15">
-        <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="10">
+        <v>1.7361111111111112E-2</v>
+      </c>
       <c r="E24" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="2"/>
       <c r="D25" s="10"/>
       <c r="E25" s="12">
@@ -1272,22 +1304,22 @@
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="10"/>
       <c r="E26" s="12">
@@ -1296,22 +1328,22 @@
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
       <c r="D27" s="10"/>
       <c r="E27" s="12">
@@ -1320,22 +1352,22 @@
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="2"/>
       <c r="D28" s="10"/>
       <c r="E28" s="12">
@@ -1344,22 +1376,22 @@
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="2"/>
       <c r="D29" s="10"/>
       <c r="E29" s="12">
@@ -1368,22 +1400,22 @@
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="2"/>
       <c r="D30" s="10"/>
       <c r="E30" s="12">
@@ -1392,22 +1424,22 @@
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2"/>
       <c r="D31" s="10"/>
       <c r="E31" s="12">
@@ -1416,22 +1448,22 @@
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+        <v>3139.3333333333335</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="10"/>
       <c r="E32" s="12">
@@ -1440,19 +1472,19 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
+        <v>3139.3333333333335</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1464,19 +1496,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
+        <v>3139.3333333333335</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1488,19 +1520,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
+        <v>3139.3333333333335</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1512,19 +1544,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
+        <v>3139.3333333333335</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1536,19 +1568,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
+        <v>3139.3333333333335</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1560,19 +1592,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
+        <v>3139.3333333333335</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1584,19 +1616,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>0.59791666666666665</v>
+        <v>0.76944444444444449</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>2439.5</v>
+        <v>3139.3333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CB2857-83AD-416A-ABC2-FB9F3453FCB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7969B-9A46-4394-928A-12FB8C987724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>čas [min]</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>26.5.</t>
+  </si>
+  <si>
+    <t>27.5.</t>
+  </si>
+  <si>
+    <t>skoro hotovo</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
   <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1071,7 @@
         <v>1836.0000000000011</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>0.69791666666666663</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>1929.5000000000011</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>0.75138888888888899</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>2348.8333333333335</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <v>0.96319444444444446</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>2439.5</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>2524.4999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <v>0.73749999999999993</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>2552.8333333333339</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <v>0.78055555555555556</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>2756.8333333333335</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <v>0.92361111111111116</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>3068.5</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>17</v>
       </c>
@@ -1295,196 +1301,234 @@
         <v>3139.3333333333335</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E25" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.2222222222222199E-2</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>0.79166666666666685</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="10"/>
+        <v>3230.0000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.46388888888888885</v>
+      </c>
       <c r="E26" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4722222222221544E-3</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>0.79513888888888884</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>0.79513888888888906</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="10"/>
+        <v>3244.166666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="E27" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.4027777777777823E-2</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>0.82916666666666661</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>0.82916666666666661</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>0.82916666666666683</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="10"/>
+        <v>3383.0000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <v>0.54236111111111118</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.59236111111111112</v>
+      </c>
       <c r="E28" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.9999999999999933E-2</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>0.87916666666666654</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>0.87916666666666654</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>0.87916666666666687</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="10"/>
+        <v>3587.0000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.78125</v>
+      </c>
       <c r="E29" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.11458333333333337</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>0.99374999999999991</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>0.99374999999999991</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>0.99375000000000024</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
+        <v>4054.5000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.82847222222222217</v>
+      </c>
       <c r="E30" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.3611111111111027E-2</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.0173611111111109</v>
       </c>
       <c r="G30" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.0173611111111109</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.0173611111111112</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="10"/>
+        <v>4150.8333333333339</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.94861111111111107</v>
+      </c>
       <c r="E31" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.0972222222222077E-2</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.0583333333333331</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.0583333333333331</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.0583333333333333</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="10"/>
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="E32" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.1222222222222222</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
+        <v>4578.666666666667</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -1496,19 +1540,19 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.1222222222222225</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
+        <v>4578.666666666667</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -1520,19 +1564,19 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.1222222222222225</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
+        <v>4578.666666666667</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -1544,19 +1588,19 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.1222222222222225</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
+        <v>4578.666666666667</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -1568,19 +1612,19 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.1222222222222225</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
+        <v>4578.666666666667</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -1592,19 +1636,19 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.1222222222222225</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
+        <v>4578.666666666667</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
@@ -1616,19 +1660,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>0.76944444444444449</v>
+        <v>1.122222222222222</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>0.76944444444444449</v>
+        <v>1.1222222222222225</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>3139.3333333333335</v>
+        <v>4578.666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/hodiny.xlsx
+++ b/hodiny.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE7969B-9A46-4394-928A-12FB8C987724}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00E60C8-50AC-477E-8803-396E7FBBE93D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>čas [min]</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>skoro hotovo</t>
+  </si>
+  <si>
+    <t>topologie</t>
   </si>
 </sst>
 </file>
@@ -596,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,31 +1534,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="10"/>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.69444444444444453</v>
+      </c>
       <c r="E33" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.7777777777777901E-2</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="5"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="6"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="7"/>
-        <v>1.1222222222222225</v>
+        <v>1.1500000000000001</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="8"/>
-        <v>4578.666666666667</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+        <v>4692</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
       <c r="D34" s="10"/>
       <c r="E34" s="12">
@@ -1564,22 +1574,22 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="5"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G34" s="8">
         <f t="shared" si="6"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="7"/>
-        <v>1.1222222222222225</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I34" s="15">
         <f t="shared" si="8"/>
-        <v>4578.666666666667</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="10"/>
       <c r="E35" s="12">
@@ -1588,22 +1598,22 @@
       </c>
       <c r="F35" s="13">
         <f t="shared" si="5"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G35" s="8">
         <f t="shared" si="6"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="7"/>
-        <v>1.1222222222222225</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I35" s="15">
         <f t="shared" si="8"/>
-        <v>4578.666666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="10"/>
       <c r="E36" s="12">
@@ -1612,22 +1622,22 @@
       </c>
       <c r="F36" s="13">
         <f t="shared" si="5"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="6"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="7"/>
-        <v>1.1222222222222225</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>4578.666666666667</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="10"/>
       <c r="E37" s="12">
@@ -1636,22 +1646,22 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="5"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G37" s="8">
         <f t="shared" si="6"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="7"/>
-        <v>1.1222222222222225</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="8"/>
-        <v>4578.666666666667</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="10"/>
       <c r="E38" s="12">
@@ -1660,19 +1670,19 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="5"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G38" s="8">
         <f t="shared" si="6"/>
-        <v>1.122222222222222</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="7"/>
-        <v>1.1222222222222225</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" si="8"/>
-        <v>4578.666666666667</v>
+        <v>4692</v>
       </c>
     </row>
   </sheetData>
